--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Кепил  0,5 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Кепил  0,5 л.xlsx
@@ -933,6 +933,50 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -944,50 +988,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1296,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1317,29 +1317,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
       <c r="F2" s="39"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1404,7 +1404,7 @@
       <c r="B5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="104" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="55"/>
@@ -1430,7 +1430,7 @@
       <c r="B6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="106" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="9"/>
@@ -1456,7 +1456,7 @@
       <c r="B7" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="106" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="9"/>
@@ -1482,7 +1482,7 @@
       <c r="B8" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="117" t="s">
+      <c r="C8" s="106" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="9"/>
@@ -1508,7 +1508,7 @@
       <c r="B9" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="106" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="9"/>
@@ -1534,7 +1534,7 @@
       <c r="B10" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="117"/>
+      <c r="C10" s="106"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>24</v>
@@ -1558,7 +1558,7 @@
       <c r="B11" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="106" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="9"/>
@@ -1585,7 +1585,7 @@
       <c r="B12" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="106" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="9"/>
@@ -1612,7 +1612,7 @@
       <c r="B13" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="106" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="9"/>
@@ -1640,7 +1640,7 @@
       <c r="B14" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="C14" s="106" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="9"/>
@@ -1666,7 +1666,7 @@
       <c r="B15" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="106" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="9"/>
@@ -1692,7 +1692,7 @@
       <c r="B16" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="116"/>
+      <c r="C16" s="105"/>
       <c r="D16" s="9"/>
       <c r="E16" s="13"/>
       <c r="F16" s="25"/>
@@ -1771,8 +1771,8 @@
       <c r="B20" s="87"/>
       <c r="C20" s="89"/>
       <c r="D20" s="87"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="107">
+      <c r="E20" s="99"/>
+      <c r="F20" s="96">
         <v>3190000</v>
       </c>
       <c r="G20" s="45">
@@ -1802,10 +1802,10 @@
       <c r="D21" s="88">
         <v>43525</v>
       </c>
-      <c r="E21" s="111">
+      <c r="E21" s="100">
         <v>177000</v>
       </c>
-      <c r="F21" s="108">
+      <c r="F21" s="97">
         <v>294249</v>
       </c>
       <c r="G21" s="45">
@@ -1835,10 +1835,10 @@
       <c r="D22" s="10">
         <v>43535</v>
       </c>
-      <c r="E22" s="112">
+      <c r="E22" s="101">
         <v>741630</v>
       </c>
-      <c r="F22" s="109">
+      <c r="F22" s="98">
         <v>825556</v>
       </c>
       <c r="G22" s="45">
@@ -1868,10 +1868,10 @@
       <c r="D23" s="10">
         <v>43610</v>
       </c>
-      <c r="E23" s="113">
+      <c r="E23" s="102">
         <v>1212450</v>
       </c>
-      <c r="F23" s="106">
+      <c r="F23" s="95">
         <v>1328689</v>
       </c>
       <c r="G23" s="45">
@@ -1892,14 +1892,33 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="15"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="30"/>
+      <c r="B24" s="10">
+        <v>43774</v>
+      </c>
+      <c r="C24" s="10">
+        <v>43777</v>
+      </c>
+      <c r="D24" s="10">
+        <v>43782</v>
+      </c>
+      <c r="E24" s="101">
+        <v>591385</v>
+      </c>
+      <c r="F24" s="11">
+        <v>658610</v>
+      </c>
+      <c r="G24" s="28">
+        <f>F24/A$20</f>
+        <v>3.9202976190476191E-2</v>
+      </c>
+      <c r="H24" s="33">
+        <f t="shared" ref="H24" si="3">H23-F24</f>
+        <v>10502896</v>
+      </c>
+      <c r="I24" s="91">
+        <f t="shared" ref="I24" si="4">I23-G24</f>
+        <v>0.62517238095238092</v>
+      </c>
       <c r="J24" s="80"/>
       <c r="K24" s="81"/>
       <c r="L24" s="1"/>
@@ -1909,7 +1928,7 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="112"/>
+      <c r="E25" s="101"/>
       <c r="F25" s="11"/>
       <c r="G25" s="28"/>
       <c r="H25" s="33"/>
@@ -1923,7 +1942,7 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="112"/>
+      <c r="E26" s="101"/>
       <c r="F26" s="11"/>
       <c r="G26" s="28"/>
       <c r="H26" s="33"/>
@@ -1937,7 +1956,7 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="112"/>
+      <c r="E27" s="101"/>
       <c r="F27" s="11"/>
       <c r="G27" s="28"/>
       <c r="H27" s="33"/>
@@ -1951,7 +1970,7 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="113"/>
+      <c r="E28" s="102"/>
       <c r="F28" s="11"/>
       <c r="G28" s="29"/>
       <c r="H28" s="33"/>
@@ -1965,7 +1984,7 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="113"/>
+      <c r="E29" s="102"/>
       <c r="F29" s="11"/>
       <c r="G29" s="28"/>
       <c r="H29" s="33"/>
@@ -1979,7 +1998,7 @@
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="114"/>
+      <c r="E30" s="103"/>
       <c r="F30" s="19"/>
       <c r="G30" s="26"/>
       <c r="H30" s="34"/>
@@ -1997,23 +2016,23 @@
       <c r="D31" s="22"/>
       <c r="E31" s="64">
         <f>SUM(E20:E30)</f>
-        <v>2131080</v>
+        <v>2722465</v>
       </c>
       <c r="F31" s="63">
         <f>SUM(F20:F30)</f>
-        <v>5638494</v>
+        <v>6297104</v>
       </c>
       <c r="G31" s="27">
         <f>SUM(G20:G30)</f>
-        <v>0.33562464285714283</v>
+        <v>0.37482761904761902</v>
       </c>
       <c r="H31" s="23">
         <f>A20-F31</f>
-        <v>11161506</v>
+        <v>10502896</v>
       </c>
       <c r="I31" s="36">
         <f>1-G31</f>
-        <v>0.66437535714285723</v>
+        <v>0.62517238095238103</v>
       </c>
       <c r="J31" s="82"/>
       <c r="K31" s="82"/>
@@ -2032,12 +2051,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2046,10 +2065,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="99" t="s">
+      <c r="A36" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="99"/>
+      <c r="B36" s="117"/>
       <c r="C36" s="12" t="s">
         <v>18</v>
       </c>
@@ -2064,18 +2083,18 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="97">
+      <c r="A37" s="115">
         <f>A20-F31</f>
-        <v>11161506</v>
-      </c>
-      <c r="B37" s="98"/>
+        <v>10502896</v>
+      </c>
+      <c r="B37" s="116"/>
       <c r="C37" s="86">
         <f>1-G31</f>
-        <v>0.66437535714285723</v>
+        <v>0.62517238095238103</v>
       </c>
       <c r="D37" s="24">
         <f>(C37/0.8)*100</f>
-        <v>83.046919642857148</v>
+        <v>78.146547619047624</v>
       </c>
       <c r="E37" s="94" t="s">
         <v>44</v>
@@ -2130,8 +2149,8 @@
       <c r="F41" s="68"/>
       <c r="G41" s="68"/>
       <c r="H41" s="68"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="96"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="114"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="69"/>
@@ -2225,9 +2244,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="104"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="111"/>
       <c r="E51" s="74"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2244,8 +2263,8 @@
       <c r="F52" s="68"/>
       <c r="G52" s="68"/>
       <c r="H52" s="68"/>
-      <c r="I52" s="95"/>
-      <c r="J52" s="96"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="114"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="69"/>
@@ -2256,8 +2275,8 @@
       <c r="F53" s="71"/>
       <c r="G53" s="71"/>
       <c r="H53" s="70"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="100"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="109"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="69"/>
@@ -2268,8 +2287,8 @@
       <c r="F54" s="72"/>
       <c r="G54" s="72"/>
       <c r="H54" s="72"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="109"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2282,23 +2301,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="95"/>
-      <c r="C60" s="96"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="114"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="95"/>
-      <c r="C67" s="96"/>
+      <c r="B67" s="113"/>
+      <c r="C67" s="114"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2306,6 +2320,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Кепил  0,5 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Кепил  0,5 л.xlsx
@@ -963,20 +963,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -986,6 +972,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1317,29 +1317,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
       <c r="F2" s="39"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -2051,12 +2051,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="108" t="s">
+      <c r="A35" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2065,10 +2065,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="117" t="s">
+      <c r="A36" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="117"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="12" t="s">
         <v>18</v>
       </c>
@@ -2083,11 +2083,11 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="115">
+      <c r="A37" s="109">
         <f>A20-F31</f>
         <v>10502896</v>
       </c>
-      <c r="B37" s="116"/>
+      <c r="B37" s="110"/>
       <c r="C37" s="86">
         <f>1-G31</f>
         <v>0.62517238095238103</v>
@@ -2149,8 +2149,8 @@
       <c r="F41" s="68"/>
       <c r="G41" s="68"/>
       <c r="H41" s="68"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="114"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="108"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="69"/>
@@ -2244,9 +2244,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="110"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="111"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="116"/>
       <c r="E51" s="74"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2263,8 +2263,8 @@
       <c r="F52" s="68"/>
       <c r="G52" s="68"/>
       <c r="H52" s="68"/>
-      <c r="I52" s="113"/>
-      <c r="J52" s="114"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="108"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="69"/>
@@ -2275,8 +2275,8 @@
       <c r="F53" s="71"/>
       <c r="G53" s="71"/>
       <c r="H53" s="70"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="109"/>
+      <c r="I53" s="112"/>
+      <c r="J53" s="112"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="69"/>
@@ -2287,8 +2287,8 @@
       <c r="F54" s="72"/>
       <c r="G54" s="72"/>
       <c r="H54" s="72"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="109"/>
+      <c r="I54" s="112"/>
+      <c r="J54" s="112"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2301,18 +2301,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="113"/>
-      <c r="C60" s="114"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="108"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="113"/>
-      <c r="C67" s="114"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="108"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2320,11 +2325,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Кепил  0,5 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Кепил  0,5 л.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$41</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>№Поз</t>
   </si>
@@ -50,21 +50,9 @@
     <t>Чистовые поддоны</t>
   </si>
   <si>
-    <t>Плунжер</t>
-  </si>
-  <si>
-    <t>Горловое кольцо</t>
-  </si>
-  <si>
     <t>Процесс эксплуатации формокомплекта</t>
   </si>
   <si>
-    <t>Пресс-кольцо</t>
-  </si>
-  <si>
-    <t>Дутьевая головка</t>
-  </si>
-  <si>
     <t>Хватки</t>
   </si>
   <si>
@@ -146,9 +134,6 @@
     <t>Кол-во брака, шт</t>
   </si>
   <si>
-    <t xml:space="preserve">      КALASSI 500 ml</t>
-  </si>
-  <si>
     <t>Дата поставки  30.01.19 (c остаточным ресурсом 81 %)</t>
   </si>
   <si>
@@ -159,6 +144,42 @@
   </si>
   <si>
     <t>Начальник УРФ                                             А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 405 гр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    KEPIL MOULD 500 JS</t>
+  </si>
+  <si>
+    <t>Горловое кольцо XXI-В-28-2-500-29</t>
+  </si>
+  <si>
+    <t>Горловое кольцо  XXI-П-25-Г-500-1</t>
+  </si>
+  <si>
+    <t>KEPIL 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    KEPIL 500 P-29-G</t>
+  </si>
+  <si>
+    <t>Дутьевая головка XXI-В-28-2-500-29</t>
+  </si>
+  <si>
+    <t>Пресс-кольцо XXI-В-28-2-500-29</t>
+  </si>
+  <si>
+    <t>Дутьевая головка XXI-П-25-Г-500-1</t>
+  </si>
+  <si>
+    <t>Пресс-кольцо XXI-П-25-Г-500-1</t>
+  </si>
+  <si>
+    <t>Плунжер XXI-В-28-2-500-29</t>
+  </si>
+  <si>
+    <t>Плунжер XXI-П-25-Г-500-1</t>
   </si>
 </sst>
 </file>
@@ -172,7 +193,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -269,16 +290,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -326,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -684,19 +695,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -705,7 +703,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -751,9 +749,6 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -781,12 +776,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -824,18 +813,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -857,15 +837,6 @@
     </xf>
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -884,8 +855,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -929,9 +900,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -960,9 +928,52 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -974,19 +985,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1294,17 +1297,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:I24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
@@ -1317,34 +1320,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="113" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
+      <c r="A1" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="117" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="39"/>
+      <c r="A2" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1355,784 +1358,860 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
       <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="42" t="s">
+      <c r="D4" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="F4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="40" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="52">
+      <c r="A5" s="104">
         <v>1</v>
       </c>
-      <c r="B5" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="104" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55">
-        <v>24</v>
-      </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55">
+      <c r="B5" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50">
+        <v>20</v>
+      </c>
+      <c r="F5" s="117"/>
+      <c r="G5" s="50">
         <f>E5-F5</f>
-        <v>24</v>
-      </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="83"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="56">
+        <v>20</v>
+      </c>
+      <c r="H5" s="54"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="74"/>
+    </row>
+    <row r="6" spans="1:13" ht="26.4">
+      <c r="A6" s="105">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="106" t="s">
-        <v>40</v>
+      <c r="C6" s="103" t="s">
+        <v>41</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
-        <v>24</v>
-      </c>
-      <c r="F6" s="25"/>
+        <v>20</v>
+      </c>
+      <c r="F6" s="118"/>
       <c r="G6" s="9">
-        <f t="shared" ref="G6:G15" si="0">E6-F6</f>
-        <v>24</v>
-      </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="58"/>
+        <f t="shared" ref="G6:G19" si="0">E6-F6</f>
+        <v>20</v>
+      </c>
+      <c r="H6" s="55"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="84"/>
+      <c r="L6" s="75"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="56">
-        <f t="shared" ref="A7:A16" si="1">A6+1</f>
+      <c r="A7" s="105">
+        <f t="shared" ref="A7:A20" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="106" t="s">
-        <v>40</v>
+      <c r="C7" s="103" t="s">
+        <v>41</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
-        <v>32</v>
-      </c>
-      <c r="F7" s="25"/>
+        <v>26</v>
+      </c>
+      <c r="F7" s="118"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="58"/>
+        <v>26</v>
+      </c>
+      <c r="H7" s="56"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="84"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="56">
+      <c r="L7" s="75"/>
+    </row>
+    <row r="8" spans="1:13" ht="26.4">
+      <c r="A8" s="105">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="106" t="s">
-        <v>40</v>
+      <c r="C8" s="103" t="s">
+        <v>41</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
-        <v>32</v>
-      </c>
-      <c r="F8" s="25"/>
+        <v>26</v>
+      </c>
+      <c r="F8" s="118"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="58"/>
+        <v>26</v>
+      </c>
+      <c r="H8" s="56"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="84"/>
+      <c r="L8" s="75"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="56">
+      <c r="A9" s="105">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="106" t="s">
-        <v>40</v>
+      <c r="B9" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>41</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
-        <v>20</v>
-      </c>
-      <c r="F9" s="25"/>
+        <v>18</v>
+      </c>
+      <c r="F9" s="118"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="59"/>
+        <v>18</v>
+      </c>
+      <c r="H9" s="56"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="84"/>
+      <c r="L9" s="75"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="56">
+      <c r="A10" s="105">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="106"/>
+      <c r="B10" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>41</v>
+      </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>24</v>
-      </c>
-      <c r="F10" s="25"/>
+        <v>20</v>
+      </c>
+      <c r="F10" s="118"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="58"/>
+        <v>20</v>
+      </c>
+      <c r="H10" s="56"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="84"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="56">
+      <c r="L10" s="75"/>
+    </row>
+    <row r="11" spans="1:13" ht="26.4">
+      <c r="A11" s="105">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="106" t="s">
-        <v>40</v>
+      <c r="B11" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="103" t="s">
+        <v>44</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
-        <v>60</v>
-      </c>
-      <c r="F11" s="37"/>
+        <v>35</v>
+      </c>
+      <c r="F11" s="118">
+        <v>1</v>
+      </c>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="59"/>
+        <v>34</v>
+      </c>
+      <c r="H11" s="56"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="35"/>
-    </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A12" s="56">
+      <c r="K11" s="8"/>
+      <c r="L11" s="75"/>
+    </row>
+    <row r="12" spans="1:13" ht="26.4">
+      <c r="A12" s="105">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="106" t="s">
-        <v>40</v>
+      <c r="B12" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>45</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>21</v>
-      </c>
-      <c r="F12" s="38"/>
+        <v>35</v>
+      </c>
+      <c r="F12" s="118"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="59"/>
+        <v>35</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="53"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="35"/>
-    </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A13" s="56">
+      <c r="L12" s="75"/>
+      <c r="M12" s="34"/>
+    </row>
+    <row r="13" spans="1:13" ht="26.4">
+      <c r="A13" s="105">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="106" t="s">
-        <v>40</v>
+      <c r="B13" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="103" t="s">
+        <v>44</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
-        <v>8</v>
-      </c>
-      <c r="F13" s="25"/>
+        <v>25</v>
+      </c>
+      <c r="F13" s="118"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H13" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="59"/>
+        <v>25</v>
+      </c>
+      <c r="H13" s="56"/>
+      <c r="I13" s="53"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="84"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="A14" s="56">
+      <c r="L13" s="75"/>
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:13" ht="26.4">
+      <c r="A14" s="105">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="106" t="s">
-        <v>40</v>
+      <c r="B14" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="103" t="s">
+        <v>45</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>50</v>
-      </c>
-      <c r="F14" s="37"/>
+        <v>20</v>
+      </c>
+      <c r="F14" s="118"/>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="59"/>
+        <v>20</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="53"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="84"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="56">
+      <c r="L14" s="75"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A15" s="105">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="106" t="s">
-        <v>40</v>
+      <c r="B15" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="103" t="s">
+        <v>41</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="13">
-        <v>60</v>
-      </c>
-      <c r="F15" s="25"/>
+      <c r="E15" s="9">
+        <v>7</v>
+      </c>
+      <c r="F15" s="118"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="59"/>
+        <v>7</v>
+      </c>
+      <c r="H15" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="53"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="84"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="56">
+      <c r="L15" s="75"/>
+    </row>
+    <row r="16" spans="1:13" ht="26.4">
+      <c r="A16" s="105">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="105"/>
+      <c r="B16" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="103" t="s">
+        <v>44</v>
+      </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="92"/>
+      <c r="E16" s="9">
+        <v>30</v>
+      </c>
+      <c r="F16" s="118"/>
+      <c r="G16" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H16" s="56"/>
+      <c r="I16" s="53"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="84"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="76"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-    </row>
-    <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="46" t="s">
+      <c r="L16" s="75"/>
+    </row>
+    <row r="17" spans="1:12" ht="26.4">
+      <c r="A17" s="105">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9">
+        <v>30</v>
+      </c>
+      <c r="F17" s="118"/>
+      <c r="G17" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H17" s="56"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="75"/>
+    </row>
+    <row r="18" spans="1:12" ht="26.4">
+      <c r="A18" s="105">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
+        <v>35</v>
+      </c>
+      <c r="F18" s="118">
+        <v>5</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="75"/>
+    </row>
+    <row r="19" spans="1:12" ht="26.4">
+      <c r="A19" s="105">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="13">
+        <v>35</v>
+      </c>
+      <c r="F19" s="118"/>
+      <c r="G19" s="9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H19" s="56"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="75"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A20" s="105">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="103"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="75"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="67"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+    </row>
+    <row r="23" spans="1:12" ht="66.599999999999994" thickBot="1">
+      <c r="A23" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="85">
+      <c r="J23" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="76">
         <f>E5*700000</f>
-        <v>16800000</v>
-      </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="96">
+        <v>14000000</v>
+      </c>
+      <c r="B24" s="78"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="86">
         <v>3190000</v>
       </c>
-      <c r="G20" s="45">
-        <f>F20/A$20</f>
-        <v>0.18988095238095237</v>
-      </c>
-      <c r="H20" s="90">
-        <f>A20-F20</f>
-        <v>13610000</v>
-      </c>
-      <c r="I20" s="91">
-        <f>1-G20</f>
-        <v>0.81011904761904763</v>
-      </c>
-      <c r="J20" s="80"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="88">
+      <c r="G24" s="42">
+        <f t="shared" ref="G24:G29" si="2">F24/A$24</f>
+        <v>0.22785714285714287</v>
+      </c>
+      <c r="H24" s="81">
+        <f>A24-F24</f>
+        <v>10810000</v>
+      </c>
+      <c r="I24" s="82">
+        <f>1-G24</f>
+        <v>0.77214285714285713</v>
+      </c>
+      <c r="J24" s="94"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A25" s="48"/>
+      <c r="B25" s="79">
         <v>43523</v>
       </c>
-      <c r="C21" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="88">
+      <c r="C25" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="79">
         <v>43525</v>
       </c>
-      <c r="E21" s="100">
+      <c r="E25" s="90">
         <v>177000</v>
       </c>
-      <c r="F21" s="97">
+      <c r="F25" s="87">
         <v>294249</v>
       </c>
-      <c r="G21" s="45">
-        <f>F21/A$20</f>
-        <v>1.7514821428571428E-2</v>
-      </c>
-      <c r="H21" s="33">
-        <f t="shared" ref="H21:I23" si="2">H20-F21</f>
-        <v>13315751</v>
-      </c>
-      <c r="I21" s="91">
+      <c r="G25" s="42">
         <f t="shared" si="2"/>
-        <v>0.79260422619047621</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="10">
+        <v>2.1017785714285715E-2</v>
+      </c>
+      <c r="H25" s="32">
+        <f t="shared" ref="H25:I27" si="3">H24-F25</f>
+        <v>10515751</v>
+      </c>
+      <c r="I25" s="82">
+        <f t="shared" si="3"/>
+        <v>0.75112507142857143</v>
+      </c>
+      <c r="J25" s="94"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A26" s="15"/>
+      <c r="B26" s="10">
         <v>43525</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C26" s="10">
         <v>43530</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D26" s="10">
         <v>43535</v>
       </c>
-      <c r="E22" s="101">
+      <c r="E26" s="91">
         <v>741630</v>
       </c>
-      <c r="F22" s="98">
+      <c r="F26" s="88">
         <v>825556</v>
       </c>
-      <c r="G22" s="45">
-        <f>F22/A$20</f>
-        <v>4.9140238095238098E-2</v>
-      </c>
-      <c r="H22" s="33">
+      <c r="G26" s="42">
         <f t="shared" si="2"/>
-        <v>12490195</v>
-      </c>
-      <c r="I22" s="91">
-        <f t="shared" si="2"/>
-        <v>0.74346398809523806</v>
-      </c>
-      <c r="J22" s="80"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="15"/>
-      <c r="B23" s="10">
-        <v>43601</v>
-      </c>
-      <c r="C23" s="10">
-        <v>43608</v>
-      </c>
-      <c r="D23" s="10">
-        <v>43610</v>
-      </c>
-      <c r="E23" s="102">
-        <v>1212450</v>
-      </c>
-      <c r="F23" s="95">
-        <v>1328689</v>
-      </c>
-      <c r="G23" s="45">
-        <f>F23/A$20</f>
-        <v>7.9088630952380959E-2</v>
-      </c>
-      <c r="H23" s="33">
-        <f t="shared" si="2"/>
-        <v>11161506</v>
-      </c>
-      <c r="I23" s="91">
-        <f t="shared" si="2"/>
-        <v>0.66437535714285711</v>
-      </c>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="15"/>
-      <c r="B24" s="10">
-        <v>43774</v>
-      </c>
-      <c r="C24" s="10">
-        <v>43777</v>
-      </c>
-      <c r="D24" s="10">
-        <v>43782</v>
-      </c>
-      <c r="E24" s="101">
-        <v>591385</v>
-      </c>
-      <c r="F24" s="11">
-        <v>658610</v>
-      </c>
-      <c r="G24" s="28">
-        <f>F24/A$20</f>
-        <v>3.9202976190476191E-2</v>
-      </c>
-      <c r="H24" s="33">
-        <f t="shared" ref="H24" si="3">H23-F24</f>
-        <v>10502896</v>
-      </c>
-      <c r="I24" s="91">
-        <f t="shared" ref="I24" si="4">I23-G24</f>
-        <v>0.62517238095238092</v>
-      </c>
-      <c r="J24" s="80"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="15"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="15"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="1"/>
+        <v>5.8968285714285716E-2</v>
+      </c>
+      <c r="H26" s="32">
+        <f t="shared" si="3"/>
+        <v>9690195</v>
+      </c>
+      <c r="I26" s="82">
+        <f t="shared" si="3"/>
+        <v>0.69215678571428574</v>
+      </c>
+      <c r="J26" s="94"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="15"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
+      <c r="B27" s="10">
+        <v>43601</v>
+      </c>
+      <c r="C27" s="10">
+        <v>43608</v>
+      </c>
+      <c r="D27" s="10">
+        <v>43610</v>
+      </c>
+      <c r="E27" s="92">
+        <v>1212450</v>
+      </c>
+      <c r="F27" s="85">
+        <v>1328689</v>
+      </c>
+      <c r="G27" s="42">
+        <f t="shared" si="2"/>
+        <v>9.490635714285714E-2</v>
+      </c>
+      <c r="H27" s="32">
+        <f t="shared" si="3"/>
+        <v>8361506</v>
+      </c>
+      <c r="I27" s="82">
+        <f t="shared" si="3"/>
+        <v>0.59725042857142863</v>
+      </c>
+      <c r="J27" s="94"/>
+      <c r="K27" s="71"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="15"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
+      <c r="B28" s="10">
+        <v>43774</v>
+      </c>
+      <c r="C28" s="10">
+        <v>43777</v>
+      </c>
+      <c r="D28" s="10">
+        <v>43782</v>
+      </c>
+      <c r="E28" s="91">
+        <v>591385</v>
+      </c>
+      <c r="F28" s="11">
+        <v>658610</v>
+      </c>
+      <c r="G28" s="27">
+        <f t="shared" si="2"/>
+        <v>4.7043571428571428E-2</v>
+      </c>
+      <c r="H28" s="32">
+        <f t="shared" ref="H28" si="4">H27-F28</f>
+        <v>7702896</v>
+      </c>
+      <c r="I28" s="82">
+        <f t="shared" ref="I28" si="5">I27-G28</f>
+        <v>0.55020685714285722</v>
+      </c>
+      <c r="J28" s="94"/>
+      <c r="K28" s="72"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="15"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
+      <c r="B29" s="10">
+        <v>43850</v>
+      </c>
+      <c r="C29" s="10">
+        <v>43856</v>
+      </c>
+      <c r="D29" s="10">
+        <v>43857</v>
+      </c>
+      <c r="E29" s="91">
+        <v>1038990</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1141013</v>
+      </c>
+      <c r="G29" s="27">
+        <f t="shared" si="2"/>
+        <v>8.1500928571428571E-2</v>
+      </c>
+      <c r="H29" s="32">
+        <f t="shared" ref="H29" si="6">H28-F29</f>
+        <v>6561883</v>
+      </c>
+      <c r="I29" s="82">
+        <f t="shared" ref="I29" si="7">I28-G29</f>
+        <v>0.46870592857142868</v>
+      </c>
+      <c r="J29" s="95">
+        <v>406</v>
+      </c>
+      <c r="K29" s="71"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+    <row r="30" spans="1:12">
+      <c r="A30" s="15"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="71"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A31" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="64">
-        <f>SUM(E20:E30)</f>
-        <v>2722465</v>
-      </c>
-      <c r="F31" s="63">
-        <f>SUM(F20:F30)</f>
-        <v>6297104</v>
-      </c>
-      <c r="G31" s="27">
-        <f>SUM(G20:G30)</f>
-        <v>0.37482761904761902</v>
-      </c>
-      <c r="H31" s="23">
-        <f>A20-F31</f>
-        <v>10502896</v>
-      </c>
-      <c r="I31" s="36">
-        <f>1-G31</f>
-        <v>0.62517238095238103</v>
-      </c>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="114"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="111" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="111"/>
-      <c r="C36" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="109">
-        <f>A20-F31</f>
-        <v>10502896</v>
-      </c>
-      <c r="B37" s="110"/>
-      <c r="C37" s="86">
-        <f>1-G31</f>
-        <v>0.62517238095238103</v>
-      </c>
-      <c r="D37" s="24">
-        <f>(C37/0.8)*100</f>
-        <v>78.146547619047624</v>
-      </c>
-      <c r="E37" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-    </row>
-    <row r="38" spans="1:11">
+    <row r="31" spans="1:12">
+      <c r="A31" s="15"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="15"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="15"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A35" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="58">
+        <f>SUM(E24:E34)</f>
+        <v>3761455</v>
+      </c>
+      <c r="F35" s="57">
+        <f>SUM(F24:F34)</f>
+        <v>7438117</v>
+      </c>
+      <c r="G35" s="26">
+        <f>SUM(G24:G34)</f>
+        <v>0.53129407142857143</v>
+      </c>
+      <c r="H35" s="23">
+        <f>A24-F35</f>
+        <v>6561883</v>
+      </c>
+      <c r="I35" s="35">
+        <f>1-G35</f>
+        <v>0.46870592857142857</v>
+      </c>
+      <c r="J35" s="98"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A39" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.6">
-      <c r="A40" s="1"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="1"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="116"/>
+      <c r="C40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2140,199 +2219,257 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="68"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="108"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="69"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
+    <row r="41" spans="1:12">
+      <c r="A41" s="114">
+        <f>A24-F35</f>
+        <v>6561883</v>
+      </c>
+      <c r="B41" s="115"/>
+      <c r="C41" s="77">
+        <f>1-G35</f>
+        <v>0.46870592857142857</v>
+      </c>
+      <c r="D41" s="24">
+        <f>(C41/0.8)*100</f>
+        <v>58.58824107142857</v>
+      </c>
+      <c r="E41" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="70"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="69"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="70"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="69"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.6">
+      <c r="A44" s="1"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="70"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="69"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="70"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="69"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="113"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="60"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="70"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="69"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="69"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="70"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="61"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="60"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="61"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="60"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="61"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="69"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="70"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="61"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="69"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="70"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.6">
-      <c r="A51" s="1"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="61"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="60"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="68"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="108"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="61"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="69"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="112"/>
-      <c r="J53" s="112"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="61"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="69"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="112"/>
-      <c r="J54" s="112"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="A54" s="60"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="61"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.6">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="109"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="65"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="B60" s="107"/>
-      <c r="C60" s="108"/>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="107"/>
-      <c r="C67" s="108"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="59"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="113"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="60"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="108"/>
+      <c r="J57" s="108"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="60"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="108"/>
+      <c r="J58" s="108"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" s="112"/>
+      <c r="C64" s="113"/>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="112"/>
+      <c r="C71" s="113"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="37" max="12" man="1"/>
+    <brk id="41" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Кепил  0,5 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Кепил  0,5 л.xlsx
@@ -835,8 +835,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -960,19 +958,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -985,11 +975,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1299,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1320,29 +1324,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
       <c r="F2" s="36"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1401,20 +1405,20 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="104">
+      <c r="A5" s="102">
         <v>1</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="100" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="50">
         <v>20</v>
       </c>
-      <c r="F5" s="117"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="50">
         <f>E5-F5</f>
         <v>20</v>
@@ -1423,24 +1427,24 @@
       <c r="I5" s="51"/>
       <c r="J5" s="49"/>
       <c r="K5" s="49"/>
-      <c r="L5" s="74"/>
+      <c r="L5" s="72"/>
     </row>
     <row r="6" spans="1:13" ht="26.4">
-      <c r="A6" s="105">
+      <c r="A6" s="103">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="101" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
         <v>20</v>
       </c>
-      <c r="F6" s="118"/>
+      <c r="F6" s="105"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G19" si="0">E6-F6</f>
         <v>20</v>
@@ -1449,24 +1453,24 @@
       <c r="I6" s="52"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="75"/>
+      <c r="L6" s="73"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="105">
+      <c r="A7" s="103">
         <f t="shared" ref="A7:A20" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="101" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
         <v>26</v>
       </c>
-      <c r="F7" s="118"/>
+      <c r="F7" s="105"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1475,24 +1479,24 @@
       <c r="I7" s="52"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="75"/>
+      <c r="L7" s="73"/>
     </row>
     <row r="8" spans="1:13" ht="26.4">
-      <c r="A8" s="105">
+      <c r="A8" s="103">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="101" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
         <v>26</v>
       </c>
-      <c r="F8" s="118"/>
+      <c r="F8" s="105"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1501,24 +1505,24 @@
       <c r="I8" s="52"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="75"/>
+      <c r="L8" s="73"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="105">
+      <c r="A9" s="103">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="101" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
         <v>18</v>
       </c>
-      <c r="F9" s="118"/>
+      <c r="F9" s="105"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1527,24 +1531,24 @@
       <c r="I9" s="53"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="75"/>
+      <c r="L9" s="73"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="105">
+      <c r="A10" s="103">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="101" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>20</v>
       </c>
-      <c r="F10" s="118"/>
+      <c r="F10" s="105"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1553,24 +1557,24 @@
       <c r="I10" s="52"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="75"/>
+      <c r="L10" s="73"/>
     </row>
     <row r="11" spans="1:13" ht="26.4">
-      <c r="A11" s="105">
+      <c r="A11" s="103">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="101" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
         <v>35</v>
       </c>
-      <c r="F11" s="118">
+      <c r="F11" s="105">
         <v>1</v>
       </c>
       <c r="G11" s="9">
@@ -1581,24 +1585,24 @@
       <c r="I11" s="52"/>
       <c r="J11" s="9"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="75"/>
+      <c r="L11" s="73"/>
     </row>
     <row r="12" spans="1:13" ht="26.4">
-      <c r="A12" s="105">
+      <c r="A12" s="103">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="101" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
         <v>35</v>
       </c>
-      <c r="F12" s="118"/>
+      <c r="F12" s="105"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1607,25 +1611,25 @@
       <c r="I12" s="53"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="75"/>
+      <c r="L12" s="73"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:13" ht="26.4">
-      <c r="A13" s="105">
+      <c r="A13" s="103">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="101" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
         <v>25</v>
       </c>
-      <c r="F13" s="118"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1634,25 +1638,25 @@
       <c r="I13" s="53"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="75"/>
+      <c r="L13" s="73"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:13" ht="26.4">
-      <c r="A14" s="105">
+      <c r="A14" s="103">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="101" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
         <v>20</v>
       </c>
-      <c r="F14" s="118"/>
+      <c r="F14" s="105"/>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1661,25 +1665,25 @@
       <c r="I14" s="53"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="75"/>
+      <c r="L14" s="73"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A15" s="105">
+      <c r="A15" s="103">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="101" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9">
         <v>7</v>
       </c>
-      <c r="F15" s="118"/>
+      <c r="F15" s="105"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1690,24 +1694,24 @@
       <c r="I15" s="53"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="75"/>
+      <c r="L15" s="73"/>
     </row>
     <row r="16" spans="1:13" ht="26.4">
-      <c r="A16" s="105">
+      <c r="A16" s="103">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="101" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
         <v>30</v>
       </c>
-      <c r="F16" s="118"/>
+      <c r="F16" s="105"/>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1716,24 +1720,24 @@
       <c r="I16" s="53"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="75"/>
+      <c r="L16" s="73"/>
     </row>
     <row r="17" spans="1:12" ht="26.4">
-      <c r="A17" s="105">
+      <c r="A17" s="103">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="101" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9">
         <v>30</v>
       </c>
-      <c r="F17" s="118"/>
+      <c r="F17" s="105"/>
       <c r="G17" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1742,24 +1746,24 @@
       <c r="I17" s="53"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="75"/>
+      <c r="L17" s="73"/>
     </row>
     <row r="18" spans="1:12" ht="26.4">
-      <c r="A18" s="105">
+      <c r="A18" s="103">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="101" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
         <v>35</v>
       </c>
-      <c r="F18" s="118">
+      <c r="F18" s="105">
         <v>5</v>
       </c>
       <c r="G18" s="9">
@@ -1770,24 +1774,24 @@
       <c r="I18" s="53"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="75"/>
+      <c r="L18" s="73"/>
     </row>
     <row r="19" spans="1:12" ht="26.4">
-      <c r="A19" s="105">
+      <c r="A19" s="103">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="103" t="s">
+      <c r="C19" s="101" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="13">
         <v>35</v>
       </c>
-      <c r="F19" s="118"/>
+      <c r="F19" s="105"/>
       <c r="G19" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1796,30 +1800,30 @@
       <c r="I19" s="53"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="75"/>
+      <c r="L19" s="73"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A20" s="105">
+      <c r="A20" s="103">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="103"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="9"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="118"/>
+      <c r="F20" s="105"/>
       <c r="G20" s="9"/>
       <c r="H20" s="56"/>
-      <c r="I20" s="83"/>
+      <c r="I20" s="81"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="75"/>
+      <c r="L20" s="73"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="67"/>
-      <c r="B21" s="66"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1831,7 +1835,7 @@
     </row>
     <row r="22" spans="1:12" ht="16.2" thickBot="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="66" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="14"/>
@@ -1841,9 +1845,9 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
     </row>
     <row r="23" spans="1:12" ht="66.599999999999994" thickBot="1">
       <c r="A23" s="43" t="s">
@@ -1876,52 +1880,52 @@
       <c r="J23" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="76">
+      <c r="A24" s="74">
         <f>E5*700000</f>
         <v>14000000</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="86">
+      <c r="B24" s="76"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="84">
         <v>3190000</v>
       </c>
       <c r="G24" s="42">
         <f t="shared" ref="G24:G29" si="2">F24/A$24</f>
         <v>0.22785714285714287</v>
       </c>
-      <c r="H24" s="81">
+      <c r="H24" s="79">
         <f>A24-F24</f>
         <v>10810000</v>
       </c>
-      <c r="I24" s="82">
+      <c r="I24" s="80">
         <f>1-G24</f>
         <v>0.77214285714285713</v>
       </c>
-      <c r="J24" s="94"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1">
       <c r="A25" s="48"/>
-      <c r="B25" s="79">
+      <c r="B25" s="77">
         <v>43523</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="77">
         <v>43525</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="88">
         <v>177000</v>
       </c>
-      <c r="F25" s="87">
+      <c r="F25" s="85">
         <v>294249</v>
       </c>
       <c r="G25" s="42">
@@ -1932,11 +1936,11 @@
         <f t="shared" ref="H25:I27" si="3">H24-F25</f>
         <v>10515751</v>
       </c>
-      <c r="I25" s="82">
+      <c r="I25" s="80">
         <f t="shared" si="3"/>
         <v>0.75112507142857143</v>
       </c>
-      <c r="J25" s="94"/>
+      <c r="J25" s="92"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
@@ -1951,10 +1955,10 @@
       <c r="D26" s="10">
         <v>43535</v>
       </c>
-      <c r="E26" s="91">
+      <c r="E26" s="89">
         <v>741630</v>
       </c>
-      <c r="F26" s="88">
+      <c r="F26" s="86">
         <v>825556</v>
       </c>
       <c r="G26" s="42">
@@ -1965,13 +1969,13 @@
         <f t="shared" si="3"/>
         <v>9690195</v>
       </c>
-      <c r="I26" s="82">
+      <c r="I26" s="80">
         <f t="shared" si="3"/>
         <v>0.69215678571428574</v>
       </c>
-      <c r="J26" s="94"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="15"/>
@@ -1984,10 +1988,10 @@
       <c r="D27" s="10">
         <v>43610</v>
       </c>
-      <c r="E27" s="92">
+      <c r="E27" s="90">
         <v>1212450</v>
       </c>
-      <c r="F27" s="85">
+      <c r="F27" s="83">
         <v>1328689</v>
       </c>
       <c r="G27" s="42">
@@ -1998,12 +2002,12 @@
         <f t="shared" si="3"/>
         <v>8361506</v>
       </c>
-      <c r="I27" s="82">
+      <c r="I27" s="80">
         <f t="shared" si="3"/>
         <v>0.59725042857142863</v>
       </c>
-      <c r="J27" s="94"/>
-      <c r="K27" s="71"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="69"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
@@ -2017,7 +2021,7 @@
       <c r="D28" s="10">
         <v>43782</v>
       </c>
-      <c r="E28" s="91">
+      <c r="E28" s="89">
         <v>591385</v>
       </c>
       <c r="F28" s="11">
@@ -2031,12 +2035,12 @@
         <f t="shared" ref="H28" si="4">H27-F28</f>
         <v>7702896</v>
       </c>
-      <c r="I28" s="82">
+      <c r="I28" s="80">
         <f t="shared" ref="I28" si="5">I27-G28</f>
         <v>0.55020685714285722</v>
       </c>
-      <c r="J28" s="94"/>
-      <c r="K28" s="72"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="70"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
@@ -2050,7 +2054,7 @@
       <c r="D29" s="10">
         <v>43857</v>
       </c>
-      <c r="E29" s="91">
+      <c r="E29" s="89">
         <v>1038990</v>
       </c>
       <c r="F29" s="11">
@@ -2064,14 +2068,14 @@
         <f t="shared" ref="H29" si="6">H28-F29</f>
         <v>6561883</v>
       </c>
-      <c r="I29" s="82">
+      <c r="I29" s="80">
         <f t="shared" ref="I29" si="7">I28-G29</f>
         <v>0.46870592857142868</v>
       </c>
-      <c r="J29" s="95">
+      <c r="J29" s="93">
         <v>406</v>
       </c>
-      <c r="K29" s="71"/>
+      <c r="K29" s="69"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12">
@@ -2079,13 +2083,13 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="91"/>
+      <c r="E30" s="89"/>
       <c r="F30" s="11"/>
       <c r="G30" s="27"/>
       <c r="H30" s="32"/>
       <c r="I30" s="29"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="71"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="69"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12">
@@ -2093,13 +2097,13 @@
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="91"/>
+      <c r="E31" s="89"/>
       <c r="F31" s="11"/>
       <c r="G31" s="27"/>
       <c r="H31" s="32"/>
       <c r="I31" s="29"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="71"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="69"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12">
@@ -2107,13 +2111,13 @@
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="92"/>
+      <c r="E32" s="90"/>
       <c r="F32" s="11"/>
       <c r="G32" s="28"/>
       <c r="H32" s="32"/>
       <c r="I32" s="30"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="71"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="69"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12">
@@ -2121,13 +2125,13 @@
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="92"/>
+      <c r="E33" s="90"/>
       <c r="F33" s="11"/>
       <c r="G33" s="27"/>
       <c r="H33" s="32"/>
       <c r="I33" s="30"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="71"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="69"/>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="13.8" thickBot="1">
@@ -2135,12 +2139,12 @@
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="18"/>
-      <c r="E34" s="93"/>
+      <c r="E34" s="91"/>
       <c r="F34" s="19"/>
       <c r="G34" s="25"/>
       <c r="H34" s="33"/>
       <c r="I34" s="31"/>
-      <c r="J34" s="97"/>
+      <c r="J34" s="95"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
@@ -2151,11 +2155,11 @@
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="58">
+      <c r="E35" s="117">
         <f>SUM(E24:E34)</f>
         <v>3761455</v>
       </c>
-      <c r="F35" s="57">
+      <c r="F35" s="118">
         <f>SUM(F24:F34)</f>
         <v>7438117</v>
       </c>
@@ -2171,9 +2175,9 @@
         <f>1-G35</f>
         <v>0.46870592857142857</v>
       </c>
-      <c r="J35" s="98"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1"/>
@@ -2188,12 +2192,12 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A39" s="107" t="s">
+      <c r="A39" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2202,10 +2206,10 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="116" t="s">
+      <c r="A40" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="116"/>
+      <c r="B40" s="110"/>
       <c r="C40" s="12" t="s">
         <v>14</v>
       </c>
@@ -2220,12 +2224,12 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="114">
+      <c r="A41" s="108">
         <f>A24-F35</f>
         <v>6561883</v>
       </c>
-      <c r="B41" s="115"/>
-      <c r="C41" s="77">
+      <c r="B41" s="109"/>
+      <c r="C41" s="75">
         <f>1-G35</f>
         <v>0.46870592857142857</v>
       </c>
@@ -2233,14 +2237,14 @@
         <f>(C41/0.8)*100</f>
         <v>58.58824107142857</v>
       </c>
-      <c r="E41" s="84" t="s">
+      <c r="E41" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1"/>
@@ -2278,113 +2282,113 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="113"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="107"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="60"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="61"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="59"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="60"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="61"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="59"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="60"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="61"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="59"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="60"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="61"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="59"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="60"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="61"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="59"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="60"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="60"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="61"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="59"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="60"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="61"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="59"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="60"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="61"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="61"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="59"/>
     </row>
     <row r="55" spans="1:10" ht="15.6">
       <c r="A55" s="1"/>
-      <c r="B55" s="109"/>
-      <c r="C55" s="109"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="65"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="63"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -2392,40 +2396,40 @@
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="59"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="113"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="107"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="60"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="108"/>
-      <c r="J57" s="108"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="111"/>
+      <c r="J57" s="111"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="60"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="108"/>
-      <c r="J58" s="108"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="111"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1"/>
@@ -2438,18 +2442,23 @@
       <c r="H59" s="1"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="B64" s="112"/>
-      <c r="C64" s="113"/>
+      <c r="B64" s="106"/>
+      <c r="C64" s="107"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="112"/>
-      <c r="C71" s="113"/>
+      <c r="B71" s="106"/>
+      <c r="C71" s="107"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A40:B40"/>
@@ -2457,11 +2466,6 @@
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="I57:J57"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Кепил  0,5 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Кепил  0,5 л.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="11760"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="18780" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -964,6 +964,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -973,26 +993,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1303,50 +1303,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="E35" sqref="E35:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="116" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
       <c r="F2" s="36"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1354,7 +1354,7 @@
       <c r="L2" s="37"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1366,7 +1366,7 @@
       <c r="K3" s="37"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="102">
         <v>1</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="K5" s="49"/>
       <c r="L5" s="72"/>
     </row>
-    <row r="6" spans="1:13" ht="26.4">
+    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="103">
         <f>A5+1</f>
         <v>2</v>
@@ -1455,7 +1455,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="73"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="103">
         <f t="shared" ref="A7:A20" si="1">A6+1</f>
         <v>3</v>
@@ -1481,7 +1481,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="73"/>
     </row>
-    <row r="8" spans="1:13" ht="26.4">
+    <row r="8" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="103">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1507,7 +1507,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="73"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="103">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1533,7 +1533,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="73"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="103">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1559,7 +1559,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="73"/>
     </row>
-    <row r="11" spans="1:13" ht="26.4">
+    <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="103">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1587,7 +1587,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="73"/>
     </row>
-    <row r="12" spans="1:13" ht="26.4">
+    <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="103">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1614,7 +1614,7 @@
       <c r="L12" s="73"/>
       <c r="M12" s="34"/>
     </row>
-    <row r="13" spans="1:13" ht="26.4">
+    <row r="13" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="103">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1641,7 +1641,7 @@
       <c r="L13" s="73"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="1:13" ht="26.4">
+    <row r="14" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="103">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1668,7 +1668,7 @@
       <c r="L14" s="73"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="103">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1696,7 +1696,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="73"/>
     </row>
-    <row r="16" spans="1:13" ht="26.4">
+    <row r="16" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="103">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1722,7 +1722,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="73"/>
     </row>
-    <row r="17" spans="1:12" ht="26.4">
+    <row r="17" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="103">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1748,7 +1748,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="73"/>
     </row>
-    <row r="18" spans="1:12" ht="26.4">
+    <row r="18" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="103">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1776,7 +1776,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="73"/>
     </row>
-    <row r="19" spans="1:12" ht="26.4">
+    <row r="19" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="103">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1802,7 +1802,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="73"/>
     </row>
-    <row r="20" spans="1:12" ht="16.5" customHeight="1">
+    <row r="20" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="103">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1821,7 +1821,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="73"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="65"/>
       <c r="B21" s="64"/>
       <c r="C21" s="1"/>
@@ -1833,7 +1833,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="16.2" thickBot="1">
+    <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="66" t="s">
         <v>8</v>
@@ -1849,7 +1849,7 @@
       <c r="K22" s="67"/>
       <c r="L22" s="67"/>
     </row>
-    <row r="23" spans="1:12" ht="66.599999999999994" thickBot="1">
+    <row r="23" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>19</v>
       </c>
@@ -1883,7 +1883,7 @@
       <c r="K23" s="68"/>
       <c r="L23" s="68"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="74">
         <f>E5*700000</f>
         <v>14000000</v>
@@ -1911,7 +1911,7 @@
       <c r="K24" s="61"/>
       <c r="L24" s="61"/>
     </row>
-    <row r="25" spans="1:12" ht="12.75" customHeight="1">
+    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="77">
         <v>43523</v>
@@ -1944,7 +1944,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="12.75" customHeight="1">
+    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="10">
         <v>43525</v>
@@ -1977,7 +1977,7 @@
       <c r="K26" s="61"/>
       <c r="L26" s="61"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="10">
         <v>43601</v>
@@ -2010,7 +2010,7 @@
       <c r="K27" s="69"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="10">
         <v>43774</v>
@@ -2043,7 +2043,7 @@
       <c r="K28" s="70"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="10">
         <v>43850</v>
@@ -2078,7 +2078,7 @@
       <c r="K29" s="69"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2092,7 +2092,7 @@
       <c r="K30" s="69"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2106,7 +2106,7 @@
       <c r="K31" s="69"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2120,7 +2120,7 @@
       <c r="K32" s="69"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2134,7 +2134,7 @@
       <c r="K33" s="69"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="13.8" thickBot="1">
+    <row r="34" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -2148,18 +2148,18 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="13.8" thickBot="1">
+    <row r="35" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="117">
+      <c r="E35" s="106">
         <f>SUM(E24:E34)</f>
         <v>3761455</v>
       </c>
-      <c r="F35" s="118">
+      <c r="F35" s="107">
         <f>SUM(F24:F34)</f>
         <v>7438117</v>
       </c>
@@ -2179,7 +2179,7 @@
       <c r="K35" s="71"/>
       <c r="L35" s="71"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2191,13 +2191,13 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A39" s="113" t="s">
+    <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="113"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2205,11 +2205,11 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="110" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="110"/>
+      <c r="B40" s="118"/>
       <c r="C40" s="12" t="s">
         <v>14</v>
       </c>
@@ -2223,12 +2223,12 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="108">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="116">
         <f>A24-F35</f>
         <v>6561883</v>
       </c>
-      <c r="B41" s="109"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="75">
         <f>1-G35</f>
         <v>0.46870592857142857</v>
@@ -2246,7 +2246,7 @@
       <c r="I41" s="82"/>
       <c r="J41" s="82"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2254,7 +2254,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2269,7 +2269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.6">
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2281,7 +2281,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="57"/>
       <c r="B45" s="57"/>
       <c r="C45" s="57"/>
@@ -2290,10 +2290,10 @@
       <c r="F45" s="57"/>
       <c r="G45" s="57"/>
       <c r="H45" s="57"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="107"/>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="I45" s="114"/>
+      <c r="J45" s="115"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="58"/>
       <c r="B46" s="59"/>
       <c r="C46" s="59"/>
@@ -2303,7 +2303,7 @@
       <c r="G46" s="60"/>
       <c r="H46" s="59"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="58"/>
       <c r="B47" s="59"/>
       <c r="C47" s="59"/>
@@ -2313,7 +2313,7 @@
       <c r="G47" s="60"/>
       <c r="H47" s="59"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="58"/>
       <c r="B48" s="59"/>
       <c r="C48" s="59"/>
@@ -2323,7 +2323,7 @@
       <c r="G48" s="60"/>
       <c r="H48" s="59"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="58"/>
       <c r="B49" s="59"/>
       <c r="C49" s="59"/>
@@ -2333,7 +2333,7 @@
       <c r="G49" s="60"/>
       <c r="H49" s="59"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="58"/>
       <c r="B50" s="59"/>
       <c r="C50" s="59"/>
@@ -2343,7 +2343,7 @@
       <c r="G50" s="60"/>
       <c r="H50" s="59"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="58"/>
       <c r="B51" s="59"/>
       <c r="C51" s="61"/>
@@ -2353,7 +2353,7 @@
       <c r="G51" s="61"/>
       <c r="H51" s="61"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="58"/>
       <c r="B52" s="59"/>
       <c r="C52" s="59"/>
@@ -2363,7 +2363,7 @@
       <c r="G52" s="60"/>
       <c r="H52" s="59"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="58"/>
       <c r="B53" s="59"/>
       <c r="C53" s="59"/>
@@ -2373,7 +2373,7 @@
       <c r="G53" s="60"/>
       <c r="H53" s="59"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="58"/>
       <c r="B54" s="59"/>
       <c r="C54" s="59"/>
@@ -2383,11 +2383,11 @@
       <c r="G54" s="60"/>
       <c r="H54" s="59"/>
     </row>
-    <row r="55" spans="1:10" ht="15.6">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="115"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="112"/>
       <c r="E55" s="63"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2395,7 +2395,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="57"/>
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
@@ -2404,10 +2404,10 @@
       <c r="F56" s="57"/>
       <c r="G56" s="57"/>
       <c r="H56" s="57"/>
-      <c r="I56" s="106"/>
-      <c r="J56" s="107"/>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="I56" s="114"/>
+      <c r="J56" s="115"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="58"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2416,10 +2416,10 @@
       <c r="F57" s="60"/>
       <c r="G57" s="60"/>
       <c r="H57" s="59"/>
-      <c r="I57" s="111"/>
-      <c r="J57" s="111"/>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="I57" s="110"/>
+      <c r="J57" s="110"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="58"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2428,10 +2428,10 @@
       <c r="F58" s="61"/>
       <c r="G58" s="61"/>
       <c r="H58" s="61"/>
-      <c r="I58" s="111"/>
-      <c r="J58" s="111"/>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="I58" s="110"/>
+      <c r="J58" s="110"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2441,24 +2441,19 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="64" spans="1:10">
-      <c r="B64" s="106"/>
-      <c r="C64" s="107"/>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="106"/>
-      <c r="C71" s="107"/>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="114"/>
+      <c r="C64" s="115"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="114"/>
+      <c r="C71" s="115"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A40:B40"/>
@@ -2466,6 +2461,11 @@
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="I57:J57"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2484,7 +2484,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2500,17 +2500,17 @@
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Кепил  0,5 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Кепил  0,5 л.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Александр Гавриленко\Работа\vedatranzit\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98B410E-C670-4B04-8CD5-0069D0E3601A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="18780" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$41</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -185,7 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -970,20 +978,6 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -993,6 +987,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1090,6 +1098,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1125,6 +1150,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1300,17 +1342,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:F35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -1324,29 +1366,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
       <c r="F2" s="36"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1429,7 +1471,7 @@
       <c r="K5" s="49"/>
       <c r="L5" s="72"/>
     </row>
-    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="103">
         <f>A5+1</f>
         <v>2</v>
@@ -1481,7 +1523,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="73"/>
     </row>
-    <row r="8" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="103">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1896,7 +1938,7 @@
         <v>3190000</v>
       </c>
       <c r="G24" s="42">
-        <f t="shared" ref="G24:G29" si="2">F24/A$24</f>
+        <f t="shared" ref="G24:G30" si="2">F24/A$24</f>
         <v>0.22785714285714287</v>
       </c>
       <c r="H24" s="79">
@@ -2080,15 +2122,36 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="93"/>
+      <c r="B30" s="10">
+        <v>43931</v>
+      </c>
+      <c r="C30" s="10">
+        <v>43936</v>
+      </c>
+      <c r="D30" s="10">
+        <v>43938</v>
+      </c>
+      <c r="E30" s="89">
+        <v>883230</v>
+      </c>
+      <c r="F30" s="11">
+        <v>947285</v>
+      </c>
+      <c r="G30" s="27">
+        <f t="shared" si="2"/>
+        <v>6.7663214285714285E-2</v>
+      </c>
+      <c r="H30" s="32">
+        <f t="shared" ref="H30" si="8">H29-F30</f>
+        <v>5614598</v>
+      </c>
+      <c r="I30" s="80">
+        <f t="shared" ref="I30" si="9">I29-G30</f>
+        <v>0.40104271428571436</v>
+      </c>
+      <c r="J30" s="93">
+        <v>406</v>
+      </c>
       <c r="K30" s="69"/>
       <c r="L30" s="1"/>
     </row>
@@ -2157,23 +2220,23 @@
       <c r="D35" s="22"/>
       <c r="E35" s="106">
         <f>SUM(E24:E34)</f>
-        <v>3761455</v>
+        <v>4644685</v>
       </c>
       <c r="F35" s="107">
         <f>SUM(F24:F34)</f>
-        <v>7438117</v>
+        <v>8385402</v>
       </c>
       <c r="G35" s="26">
         <f>SUM(G24:G34)</f>
-        <v>0.53129407142857143</v>
+        <v>0.59895728571428575</v>
       </c>
       <c r="H35" s="23">
         <f>A24-F35</f>
-        <v>6561883</v>
+        <v>5614598</v>
       </c>
       <c r="I35" s="35">
         <f>1-G35</f>
-        <v>0.46870592857142857</v>
+        <v>0.40104271428571425</v>
       </c>
       <c r="J35" s="96"/>
       <c r="K35" s="71"/>
@@ -2192,12 +2255,12 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="109" t="s">
+      <c r="A39" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2206,10 +2269,10 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="118" t="s">
+      <c r="A40" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="118"/>
+      <c r="B40" s="112"/>
       <c r="C40" s="12" t="s">
         <v>14</v>
       </c>
@@ -2224,18 +2287,18 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="116">
+      <c r="A41" s="110">
         <f>A24-F35</f>
-        <v>6561883</v>
-      </c>
-      <c r="B41" s="117"/>
+        <v>5614598</v>
+      </c>
+      <c r="B41" s="111"/>
       <c r="C41" s="75">
         <f>1-G35</f>
-        <v>0.46870592857142857</v>
+        <v>0.40104271428571425</v>
       </c>
       <c r="D41" s="24">
         <f>(C41/0.8)*100</f>
-        <v>58.58824107142857</v>
+        <v>50.130339285714278</v>
       </c>
       <c r="E41" s="82" t="s">
         <v>39</v>
@@ -2290,8 +2353,8 @@
       <c r="F45" s="57"/>
       <c r="G45" s="57"/>
       <c r="H45" s="57"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="115"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="109"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="58"/>
@@ -2385,9 +2448,9 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="111"/>
-      <c r="D55" s="112"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="63"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2404,8 +2467,8 @@
       <c r="F56" s="57"/>
       <c r="G56" s="57"/>
       <c r="H56" s="57"/>
-      <c r="I56" s="114"/>
-      <c r="J56" s="115"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="109"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="58"/>
@@ -2416,8 +2479,8 @@
       <c r="F57" s="60"/>
       <c r="G57" s="60"/>
       <c r="H57" s="59"/>
-      <c r="I57" s="110"/>
-      <c r="J57" s="110"/>
+      <c r="I57" s="113"/>
+      <c r="J57" s="113"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="58"/>
@@ -2428,8 +2491,8 @@
       <c r="F58" s="61"/>
       <c r="G58" s="61"/>
       <c r="H58" s="61"/>
-      <c r="I58" s="110"/>
-      <c r="J58" s="110"/>
+      <c r="I58" s="113"/>
+      <c r="J58" s="113"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
@@ -2442,18 +2505,23 @@
       <c r="H59" s="1"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="114"/>
-      <c r="C64" s="115"/>
+      <c r="B64" s="108"/>
+      <c r="C64" s="109"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="114"/>
-      <c r="C71" s="115"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="109"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A40:B40"/>
@@ -2461,11 +2529,6 @@
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="I57:J57"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2479,7 +2542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2493,7 +2556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Кепил  0,5 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Кепил  0,5 л.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Александр Гавриленко\Работа\vedatranzit\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98B410E-C670-4B04-8CD5-0069D0E3601A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762566DA-958B-4716-B2B2-0370208936BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$41</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -978,6 +978,20 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -987,20 +1001,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1345,14 +1345,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -1366,29 +1366,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
       <c r="F2" s="36"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1601,7 +1601,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="73"/>
     </row>
-    <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="103">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1629,7 +1629,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="73"/>
     </row>
-    <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="103">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1656,7 +1656,7 @@
       <c r="L12" s="73"/>
       <c r="M12" s="34"/>
     </row>
-    <row r="13" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="103">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1683,7 +1683,7 @@
       <c r="L13" s="73"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="103">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1738,7 +1738,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="73"/>
     </row>
-    <row r="16" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="103">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1764,7 +1764,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="73"/>
     </row>
-    <row r="17" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="103">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1790,7 +1790,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="73"/>
     </row>
-    <row r="18" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="103">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1818,7 +1818,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="73"/>
     </row>
-    <row r="19" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="103">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2255,12 +2255,12 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="115" t="s">
+      <c r="A39" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="115"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2269,10 +2269,10 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="112" t="s">
+      <c r="A40" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="112"/>
+      <c r="B40" s="118"/>
       <c r="C40" s="12" t="s">
         <v>14</v>
       </c>
@@ -2287,11 +2287,11 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="110">
+      <c r="A41" s="116">
         <f>A24-F35</f>
         <v>5614598</v>
       </c>
-      <c r="B41" s="111"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="75">
         <f>1-G35</f>
         <v>0.40104271428571425</v>
@@ -2353,8 +2353,8 @@
       <c r="F45" s="57"/>
       <c r="G45" s="57"/>
       <c r="H45" s="57"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="109"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="115"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="58"/>
@@ -2448,9 +2448,9 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="117"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="112"/>
       <c r="E55" s="63"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2467,8 +2467,8 @@
       <c r="F56" s="57"/>
       <c r="G56" s="57"/>
       <c r="H56" s="57"/>
-      <c r="I56" s="108"/>
-      <c r="J56" s="109"/>
+      <c r="I56" s="114"/>
+      <c r="J56" s="115"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="58"/>
@@ -2479,8 +2479,8 @@
       <c r="F57" s="60"/>
       <c r="G57" s="60"/>
       <c r="H57" s="59"/>
-      <c r="I57" s="113"/>
-      <c r="J57" s="113"/>
+      <c r="I57" s="110"/>
+      <c r="J57" s="110"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="58"/>
@@ -2491,8 +2491,8 @@
       <c r="F58" s="61"/>
       <c r="G58" s="61"/>
       <c r="H58" s="61"/>
-      <c r="I58" s="113"/>
-      <c r="J58" s="113"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="110"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
@@ -2505,23 +2505,18 @@
       <c r="H59" s="1"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="108"/>
-      <c r="C64" s="109"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="115"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="108"/>
-      <c r="C71" s="109"/>
+      <c r="B71" s="114"/>
+      <c r="C71" s="115"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A40:B40"/>
@@ -2529,6 +2524,11 @@
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="I57:J57"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Кепил  0,5 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Кепил  0,5 л.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762566DA-958B-4716-B2B2-0370208936BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD669278-CD85-422B-8DE8-2F50472462F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -769,9 +769,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -940,8 +937,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1001,6 +996,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1346,7 +1348,7 @@
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B20"/>
+      <selection activeCell="J32" sqref="J32:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1366,34 +1368,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="36"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1404,468 +1406,468 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
       <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="102">
+      <c r="A5" s="99">
         <v>1</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49">
         <v>20</v>
       </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="50">
+      <c r="F5" s="101"/>
+      <c r="G5" s="49">
         <f>E5-F5</f>
         <v>20</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="72"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="103">
+      <c r="A6" s="100">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="98" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
         <v>20</v>
       </c>
-      <c r="F6" s="105"/>
+      <c r="F6" s="102"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G19" si="0">E6-F6</f>
         <v>20</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="73"/>
+      <c r="L6" s="72"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="103">
+      <c r="A7" s="100">
         <f t="shared" ref="A7:A20" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="98" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
         <v>26</v>
       </c>
-      <c r="F7" s="105"/>
+      <c r="F7" s="102"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="52"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="51"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="73"/>
+      <c r="L7" s="72"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="103">
+      <c r="A8" s="100">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="98" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
         <v>26</v>
       </c>
-      <c r="F8" s="105"/>
+      <c r="F8" s="102"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="52"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="51"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="73"/>
+      <c r="L8" s="72"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="103">
+      <c r="A9" s="100">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="98" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
         <v>18</v>
       </c>
-      <c r="F9" s="105"/>
+      <c r="F9" s="102"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="53"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="73"/>
+      <c r="L9" s="72"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="103">
+      <c r="A10" s="100">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="98" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>20</v>
       </c>
-      <c r="F10" s="105"/>
+      <c r="F10" s="102"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="52"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="73"/>
+      <c r="L10" s="72"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="103">
+      <c r="A11" s="100">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="98" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
         <v>35</v>
       </c>
-      <c r="F11" s="105">
+      <c r="F11" s="102">
         <v>1</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="52"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="51"/>
       <c r="J11" s="9"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="73"/>
+      <c r="L11" s="72"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="103">
+      <c r="A12" s="100">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="98" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
         <v>35</v>
       </c>
-      <c r="F12" s="105"/>
+      <c r="F12" s="102"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="53"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="34"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="103">
+      <c r="A13" s="100">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="98" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
         <v>25</v>
       </c>
-      <c r="F13" s="105"/>
+      <c r="F13" s="102"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="53"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="52"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="34"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="33"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="103">
+      <c r="A14" s="100">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="98" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
         <v>20</v>
       </c>
-      <c r="F14" s="105"/>
+      <c r="F14" s="102"/>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="53"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="52"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="34"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="103">
+      <c r="A15" s="100">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="98" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9">
         <v>7</v>
       </c>
-      <c r="F15" s="105"/>
+      <c r="F15" s="102"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="53"/>
+      <c r="I15" s="52"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="73"/>
+      <c r="L15" s="72"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="103">
+      <c r="A16" s="100">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="98" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
         <v>30</v>
       </c>
-      <c r="F16" s="105"/>
+      <c r="F16" s="102"/>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="53"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="52"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="73"/>
+      <c r="L16" s="72"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="103">
+      <c r="A17" s="100">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="98" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9">
         <v>30</v>
       </c>
-      <c r="F17" s="105"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="53"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="52"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="73"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="103">
+      <c r="A18" s="100">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="98" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
         <v>35</v>
       </c>
-      <c r="F18" s="105">
+      <c r="F18" s="102">
         <v>5</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="53"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="52"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="73"/>
+      <c r="L18" s="72"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="103">
+      <c r="A19" s="100">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="98" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="13">
         <v>35</v>
       </c>
-      <c r="F19" s="105"/>
+      <c r="F19" s="102"/>
       <c r="G19" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="53"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="52"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="73"/>
+      <c r="L19" s="72"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="103">
+      <c r="A20" s="100">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="101"/>
+      <c r="C20" s="98"/>
       <c r="D20" s="9"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="105"/>
+      <c r="F20" s="102"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="81"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="73"/>
+      <c r="L20" s="72"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1877,7 +1879,7 @@
     </row>
     <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="65" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="14"/>
@@ -1887,102 +1889,102 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
     </row>
     <row r="23" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="46" t="s">
+      <c r="H23" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="47" t="s">
+      <c r="I23" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="47" t="s">
+      <c r="J23" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="74">
+      <c r="A24" s="73">
         <f>E5*700000</f>
         <v>14000000</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="84">
+      <c r="B24" s="75"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="83">
         <v>3190000</v>
       </c>
-      <c r="G24" s="42">
-        <f t="shared" ref="G24:G30" si="2">F24/A$24</f>
+      <c r="G24" s="41">
+        <f t="shared" ref="G24:G32" si="2">F24/A$24</f>
         <v>0.22785714285714287</v>
       </c>
-      <c r="H24" s="79">
+      <c r="H24" s="78">
         <f>A24-F24</f>
         <v>10810000</v>
       </c>
-      <c r="I24" s="80">
+      <c r="I24" s="79">
         <f>1-G24</f>
         <v>0.77214285714285713</v>
       </c>
-      <c r="J24" s="92"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="77">
+      <c r="A25" s="47"/>
+      <c r="B25" s="76">
         <v>43523</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="77">
+      <c r="D25" s="76">
         <v>43525</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <v>177000</v>
       </c>
-      <c r="F25" s="85">
+      <c r="F25" s="84">
         <v>294249</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="41">
         <f t="shared" si="2"/>
         <v>2.1017785714285715E-2</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="31">
         <f t="shared" ref="H25:I27" si="3">H24-F25</f>
         <v>10515751</v>
       </c>
-      <c r="I25" s="80">
+      <c r="I25" s="79">
         <f t="shared" si="3"/>
         <v>0.75112507142857143</v>
       </c>
-      <c r="J25" s="92"/>
+      <c r="J25" s="91"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
@@ -1997,27 +1999,27 @@
       <c r="D26" s="10">
         <v>43535</v>
       </c>
-      <c r="E26" s="89">
+      <c r="E26" s="88">
         <v>741630</v>
       </c>
-      <c r="F26" s="86">
+      <c r="F26" s="85">
         <v>825556</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="41">
         <f t="shared" si="2"/>
         <v>5.8968285714285716E-2</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="31">
         <f t="shared" si="3"/>
         <v>9690195</v>
       </c>
-      <c r="I26" s="80">
+      <c r="I26" s="79">
         <f t="shared" si="3"/>
         <v>0.69215678571428574</v>
       </c>
-      <c r="J26" s="92"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
@@ -2030,26 +2032,26 @@
       <c r="D27" s="10">
         <v>43610</v>
       </c>
-      <c r="E27" s="90">
+      <c r="E27" s="89">
         <v>1212450</v>
       </c>
-      <c r="F27" s="83">
+      <c r="F27" s="82">
         <v>1328689</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="41">
         <f t="shared" si="2"/>
         <v>9.490635714285714E-2</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="31">
         <f t="shared" si="3"/>
         <v>8361506</v>
       </c>
-      <c r="I27" s="80">
+      <c r="I27" s="79">
         <f t="shared" si="3"/>
         <v>0.59725042857142863</v>
       </c>
-      <c r="J27" s="92"/>
-      <c r="K27" s="69"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="68"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2063,7 +2065,7 @@
       <c r="D28" s="10">
         <v>43782</v>
       </c>
-      <c r="E28" s="89">
+      <c r="E28" s="88">
         <v>591385</v>
       </c>
       <c r="F28" s="11">
@@ -2073,16 +2075,16 @@
         <f t="shared" si="2"/>
         <v>4.7043571428571428E-2</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="31">
         <f t="shared" ref="H28" si="4">H27-F28</f>
         <v>7702896</v>
       </c>
-      <c r="I28" s="80">
+      <c r="I28" s="79">
         <f t="shared" ref="I28" si="5">I27-G28</f>
         <v>0.55020685714285722</v>
       </c>
-      <c r="J28" s="92"/>
-      <c r="K28" s="70"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="69"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2096,7 +2098,7 @@
       <c r="D29" s="10">
         <v>43857</v>
       </c>
-      <c r="E29" s="89">
+      <c r="E29" s="88">
         <v>1038990</v>
       </c>
       <c r="F29" s="11">
@@ -2106,18 +2108,18 @@
         <f t="shared" si="2"/>
         <v>8.1500928571428571E-2</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="31">
         <f t="shared" ref="H29" si="6">H28-F29</f>
         <v>6561883</v>
       </c>
-      <c r="I29" s="80">
+      <c r="I29" s="79">
         <f t="shared" ref="I29" si="7">I28-G29</f>
         <v>0.46870592857142868</v>
       </c>
-      <c r="J29" s="93">
+      <c r="J29" s="92">
         <v>406</v>
       </c>
-      <c r="K29" s="69"/>
+      <c r="K29" s="68"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -2131,7 +2133,7 @@
       <c r="D30" s="10">
         <v>43938</v>
       </c>
-      <c r="E30" s="89">
+      <c r="E30" s="88">
         <v>883230</v>
       </c>
       <c r="F30" s="11">
@@ -2141,46 +2143,88 @@
         <f t="shared" si="2"/>
         <v>6.7663214285714285E-2</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="31">
         <f t="shared" ref="H30" si="8">H29-F30</f>
         <v>5614598</v>
       </c>
-      <c r="I30" s="80">
+      <c r="I30" s="79">
         <f t="shared" ref="I30" si="9">I29-G30</f>
         <v>0.40104271428571436</v>
       </c>
-      <c r="J30" s="93">
+      <c r="J30" s="92">
         <v>406</v>
       </c>
-      <c r="K30" s="69"/>
+      <c r="K30" s="68"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="69"/>
+      <c r="B31" s="10">
+        <v>44151</v>
+      </c>
+      <c r="C31" s="10">
+        <v>44154</v>
+      </c>
+      <c r="D31" s="10">
+        <v>44166</v>
+      </c>
+      <c r="E31" s="88">
+        <v>569940</v>
+      </c>
+      <c r="F31" s="11">
+        <v>619631</v>
+      </c>
+      <c r="G31" s="27">
+        <f t="shared" si="2"/>
+        <v>4.4259357142857142E-2</v>
+      </c>
+      <c r="H31" s="31">
+        <f t="shared" ref="H31" si="10">H30-F31</f>
+        <v>4994967</v>
+      </c>
+      <c r="I31" s="79">
+        <f t="shared" ref="I31" si="11">I30-G31</f>
+        <v>0.35678335714285725</v>
+      </c>
+      <c r="J31" s="92">
+        <v>406</v>
+      </c>
+      <c r="K31" s="68"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="69"/>
+      <c r="B32" s="10">
+        <v>44232</v>
+      </c>
+      <c r="C32" s="10">
+        <v>44236</v>
+      </c>
+      <c r="D32" s="116">
+        <v>44256</v>
+      </c>
+      <c r="E32" s="89">
+        <v>746940</v>
+      </c>
+      <c r="F32" s="11">
+        <v>802660</v>
+      </c>
+      <c r="G32" s="28">
+        <f t="shared" si="2"/>
+        <v>5.7332857142857144E-2</v>
+      </c>
+      <c r="H32" s="31">
+        <f t="shared" ref="H32" si="12">H31-F32</f>
+        <v>4192307</v>
+      </c>
+      <c r="I32" s="79">
+        <f t="shared" ref="I32" si="13">I31-G32</f>
+        <v>0.29945050000000012</v>
+      </c>
+      <c r="J32" s="117">
+        <v>407</v>
+      </c>
+      <c r="K32" s="68"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -2188,13 +2232,13 @@
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="90"/>
+      <c r="E33" s="89"/>
       <c r="F33" s="11"/>
       <c r="G33" s="27"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="69"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="68"/>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2202,12 +2246,12 @@
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="18"/>
-      <c r="E34" s="91"/>
+      <c r="E34" s="90"/>
       <c r="F34" s="19"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="95"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="118"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
@@ -2218,29 +2262,29 @@
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="106">
+      <c r="E35" s="103">
         <f>SUM(E24:E34)</f>
-        <v>4644685</v>
-      </c>
-      <c r="F35" s="107">
+        <v>5961565</v>
+      </c>
+      <c r="F35" s="104">
         <f>SUM(F24:F34)</f>
-        <v>8385402</v>
+        <v>9807693</v>
       </c>
       <c r="G35" s="26">
         <f>SUM(G24:G34)</f>
-        <v>0.59895728571428575</v>
+        <v>0.70054950000000005</v>
       </c>
       <c r="H35" s="23">
         <f>A24-F35</f>
-        <v>5614598</v>
-      </c>
-      <c r="I35" s="35">
+        <v>4192307</v>
+      </c>
+      <c r="I35" s="34">
         <f>1-G35</f>
-        <v>0.40104271428571425</v>
-      </c>
-      <c r="J35" s="96"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
+        <v>0.29945049999999995</v>
+      </c>
+      <c r="J35" s="93"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
@@ -2255,12 +2299,12 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="109" t="s">
+      <c r="A39" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2269,10 +2313,10 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="118" t="s">
+      <c r="A40" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="118"/>
+      <c r="B40" s="115"/>
       <c r="C40" s="12" t="s">
         <v>14</v>
       </c>
@@ -2287,27 +2331,27 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="116">
+      <c r="A41" s="113">
         <f>A24-F35</f>
-        <v>5614598</v>
-      </c>
-      <c r="B41" s="117"/>
-      <c r="C41" s="75">
+        <v>4192307</v>
+      </c>
+      <c r="B41" s="114"/>
+      <c r="C41" s="74">
         <f>1-G35</f>
-        <v>0.40104271428571425</v>
+        <v>0.29945049999999995</v>
       </c>
       <c r="D41" s="24">
         <f>(C41/0.8)*100</f>
-        <v>50.130339285714278</v>
-      </c>
-      <c r="E41" s="82" t="s">
+        <v>37.43131249999999</v>
+      </c>
+      <c r="E41" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -2345,113 +2389,113 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="57"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="115"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="112"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="58"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="59"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="58"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="58"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="59"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="58"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="59"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="58"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="58"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="59"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="58"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="59"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="58"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="59"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="58"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="58"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="59"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="58"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="59"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="58"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="111"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="63"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="62"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -2459,40 +2503,40 @@
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="57"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="114"/>
-      <c r="J56" s="115"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="111"/>
+      <c r="J56" s="112"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="58"/>
+      <c r="A57" s="57"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="110"/>
-      <c r="J57" s="110"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="107"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="58"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="110"/>
-      <c r="J58" s="110"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="107"/>
+      <c r="J58" s="107"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
@@ -2505,12 +2549,12 @@
       <c r="H59" s="1"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="114"/>
-      <c r="C64" s="115"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="112"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="114"/>
-      <c r="C71" s="115"/>
+      <c r="B71" s="111"/>
+      <c r="C71" s="112"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
